--- a/biology/Médecine/Citrullinémie_type_II/Citrullinémie_type_II.xlsx
+++ b/biology/Médecine/Citrullinémie_type_II/Citrullinémie_type_II.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La citrullinémie type II est une maladie génétique congénitale en rapport avec un déficit enzymatique du cycle de l'urée. Il existe deux manifestations cliniques de cette maladie: une forme  néonatale et une forme adulte. 
 La forme adulte est caractérisée par des manifestations psychiatriques comprenant des troubles agressives, une hyperactivité, des troubles visuels, une désorientation temporo-spatiale, une instabilité émotionnelle, une somnolence, des tremblements, des convulsions puis un coma. La mort peut survenir par un coma cérébral. Cette maladie survient entre 20 et 50 ans. La plupart des individus affectionnent les régimes riches en protéine ou en lipide et évitent l'alimentation en glucide. Les troubles sont souvent provoqués par la prise d'alcool, de médicament ou lors d'un stress chirurgical. 
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,6 +528,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,6 +556,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -549,7 +565,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,6 +584,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -575,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -594,6 +612,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -601,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -619,7 +639,9 @@
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La transmission de cette maladie est récessive.
 </t>
@@ -632,7 +654,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Citrullin%C3%A9mie_type_II</t>
+          <t>Citrullinémie_type_II</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -650,11 +672,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:603471 [1]
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:605814 [2]
-(en) Keiko Kobayashi, Takeyori Saheki Citrin Deficiency In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. [3].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:603471 
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number:605814 
+(en) Keiko Kobayashi, Takeyori Saheki Citrin Deficiency In : GeneReviews at GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1997-2005. .
  Portail de la médecine                     </t>
         </is>
       </c>
